--- a/model/processed_outputZXUB-ST2R.xlsx
+++ b/model/processed_outputZXUB-ST2R.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="i_ExecutionDate" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t xml:space="preserve">ExecutionDate</t>
   </si>
@@ -75,7 +75,7 @@
     <t xml:space="preserve">ATTRIBUTES.LAST_PAYMENT_MADE_DATE</t>
   </si>
   <si>
-    <t xml:space="preserve">Current</t>
+    <t xml:space="preserve">CURRENT_OPEN_VERSION</t>
   </si>
   <si>
     <t xml:space="preserve">MetricName</t>
@@ -138,9 +138,6 @@
     <t xml:space="preserve">Servicing Interest Accrual</t>
   </si>
   <si>
-    <t xml:space="preserve">Transactiontype</t>
-  </si>
-  <si>
     <t>ZXUB-ST2R</t>
   </si>
   <si>
@@ -150,7 +147,7 @@
     <t>202410</t>
   </si>
   <si>
-    <t>-25.63</t>
+    <t>446.74</t>
   </si>
   <si>
     <t>LEGAL PRINCIPAL</t>
@@ -165,7 +162,7 @@
     <t>SPORTING GOODS AND OUTDOORS</t>
   </si>
   <si>
-    <t>Sun Oct 27 23:30:00 PKT 2024</t>
+    <t>Mon Oct 28 00:30:00 IST 2024</t>
   </si>
   <si>
     <t>2024-11-28</t>
@@ -180,7 +177,7 @@
     <t>2024-09-28</t>
   </si>
   <si>
-    <t>Sat Oct 26 23:30:00 PKT 2024</t>
+    <t>Sun Oct 27 00:00:00 IST 2024</t>
   </si>
 </sst>
 </file>
@@ -191,7 +188,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +213,14 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -294,7 +299,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -311,7 +316,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -319,15 +324,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -339,31 +348,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -653,7 +650,7 @@
   </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -700,23 +697,24 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="24.11" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="1" width="14.71" collapsed="false" outlineLevel="0"/>
     <col min="3" max="3" customWidth="true" hidden="false" style="1" width="12.57" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="1" width="27.0" collapsed="false" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="26.15" collapsed="false" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="32.42" collapsed="false" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="25.85" collapsed="false" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="37.15" collapsed="false" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="0" width="38.57" collapsed="false" outlineLevel="0"/>
-    <col min="10" max="11" customWidth="true" hidden="false" style="0" width="12.0" collapsed="false" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="26.16" collapsed="false" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="32.42" collapsed="false" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="25.85" collapsed="false" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="37.15" collapsed="false" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="38.57" collapsed="false" outlineLevel="0"/>
+    <col min="10" max="11" customWidth="true" hidden="false" style="1" width="12.0" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -750,55 +748,54 @@
     </row>
     <row r="2">
       <c r="B2" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G3" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3"/>
-    <row r="4">
-      <c r="B4" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
         <v>49</v>
-      </c>
-      <c r="H4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -830,7 +827,7 @@
     <col min="2" max="2" customWidth="true" hidden="false" style="1" width="14.29" collapsed="false" outlineLevel="0"/>
     <col min="3" max="3" customWidth="true" hidden="false" style="1" width="18.57" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="1" width="26.29" collapsed="false" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="16.85" collapsed="false" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="16.84" collapsed="false" outlineLevel="0"/>
     <col min="6" max="6" customWidth="true" hidden="false" style="1" width="23.29" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
@@ -856,22 +853,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -899,29 +896,29 @@
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="1" width="34.71" collapsed="false" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="50.29" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="50.29" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="11" t="str">
+      <c r="B2" s="12" t="str">
         <f aca="false">i_InstrumentAttribute!E2</f>
         <v>0.3533</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="12" t="str">
+      <c r="B3" s="13" t="str">
         <f aca="false">i_InstrumentAttribute!G2</f>
         <v>2024-10-28</v>
       </c>
@@ -929,10 +926,10 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="12" t="str">
+      <c r="B4" s="13" t="str">
         <f aca="false">i_InstrumentAttribute!I2</f>
         <v>2024-10-28</v>
       </c>
@@ -940,114 +937,114 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="12" t="str">
+      <c r="B5" s="13" t="str">
         <f aca="false">i_InstrumentAttribute!H2</f>
         <v>2024-11-28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="11" t="str">
+      <c r="B6" s="12" t="str">
         <f aca="false">i_Metric!F2</f>
-        <v>-25.63</v>
+        <v>446.74</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="11" t="str">
+      <c r="B7" s="12" t="str">
         <f aca="false">i_InstrumentAttribute!D2</f>
         <v>ZXUB-ST2R</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="11" t="n">
+      <c r="B8" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="str">
+      <c r="A11" s="12" t="str">
         <f aca="false">A3</f>
         <v>Transaction Date</v>
       </c>
-      <c r="B11" s="12" t="str">
+      <c r="B11" s="13" t="str">
         <f aca="false">B3</f>
         <v>2024-10-28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="str">
+      <c r="A12" s="12" t="str">
         <f aca="false">A6</f>
         <v>Principal</v>
       </c>
-      <c r="B12" s="11" t="str">
+      <c r="B12" s="12" t="str">
         <f aca="false">B6</f>
-        <v>-25.63</v>
+        <v>446.74</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="str">
+      <c r="A13" s="12" t="str">
         <f aca="false">A2</f>
         <v>Interest Rate</v>
       </c>
-      <c r="B13" s="11" t="str">
+      <c r="B13" s="12" t="str">
         <f aca="false">B2</f>
         <v>0.3533</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="11" t="n">
+      <c r="B14" s="12" t="n">
         <f aca="false">B13*1/360</f>
         <v>9.813888888888888E-4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="11" t="n">
+      <c r="B15" s="12" t="n">
         <f aca="false">B14*B12</f>
-        <v>-0.025152997222222227</v>
+        <v>0.4384256722222223</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="11" t="n">
+      <c r="B16" s="12" t="n">
         <f aca="false">ROUND(B15,6)</f>
-        <v>-0.025153</v>
+        <v>0.438426</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1075,28 +1072,28 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="15.42" collapsed="false" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="12.57" collapsed="false" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="23.71" collapsed="false" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="23.71" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="15.42" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="12.57" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="1" width="9.0" collapsed="false" outlineLevel="0"/>
     <col min="5" max="5" customWidth="true" hidden="false" style="1" width="10.85" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1106,21 +1103,21 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="str">
+      <c r="A2" s="1" t="str">
+        <f aca="false">CALC!B20</f>
+        <v>Servicing Interest Accrual</v>
+      </c>
+      <c r="B2" s="8" t="str">
         <f aca="false">CALC!B3</f>
         <v>2024-10-28</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="C2" s="1" t="str">
         <f aca="false">CALC!B7</f>
         <v>ZXUB-ST2R</v>
       </c>
-      <c r="C2" s="1" t="str">
-        <f aca="false">CALC!B20</f>
-        <v>Servicing Interest Accrual</v>
-      </c>
       <c r="D2" s="1" t="n">
         <f aca="false">CALC!B16</f>
-        <v>-0.025153</v>
+        <v>0.438426</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>

--- a/model/processed_outputZXUB-ST2R.xlsx
+++ b/model/processed_outputZXUB-ST2R.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t xml:space="preserve">ExecutionDate</t>
   </si>
@@ -141,7 +141,7 @@
     <t>ZXUB-ST2R</t>
   </si>
   <si>
-    <t>0.0</t>
+    <t>472.37</t>
   </si>
   <si>
     <t>202410</t>
@@ -153,6 +153,9 @@
     <t>LEGAL PRINCIPAL</t>
   </si>
   <si>
+    <t>-25.63</t>
+  </si>
+  <si>
     <t>2024-10-28</t>
   </si>
   <si>
@@ -162,7 +165,7 @@
     <t>SPORTING GOODS AND OUTDOORS</t>
   </si>
   <si>
-    <t>Mon Oct 28 00:30:00 IST 2024</t>
+    <t>Mon Oct 28 00:00:00 IST 2024</t>
   </si>
   <si>
     <t>2024-11-28</t>
@@ -748,54 +751,54 @@
     </row>
     <row r="2">
       <c r="B2" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>37</v>
       </c>
       <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -865,7 +868,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
